--- a/biology/Biologie cellulaire et moléculaire/Liste_de_sigles_de_biologie_cellulaire_et_moléculaire/Liste_de_sigles_de_biologie_cellulaire_et_moléculaire.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Liste_de_sigles_de_biologie_cellulaire_et_moléculaire/Liste_de_sigles_de_biologie_cellulaire_et_moléculaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_sigles_de_biologie_cellulaire_et_mol%C3%A9culaire</t>
+          <t>Liste_de_sigles_de_biologie_cellulaire_et_moléculaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -519,7 +531,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_de_sigles_de_biologie_cellulaire_et_mol%C3%A9culaire</t>
+          <t>Liste_de_sigles_de_biologie_cellulaire_et_moléculaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -537,7 +549,9 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">ACP : amplification en chaîne par polymérase (ou réaction en chaîne par polymérase), méthode de biologie moléculaire d'amplification d'ADN in vitro
 ADAM : A Disintegrin And Metalloprotease
@@ -598,7 +612,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_de_sigles_de_biologie_cellulaire_et_mol%C3%A9culaire</t>
+          <t>Liste_de_sigles_de_biologie_cellulaire_et_moléculaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -616,7 +630,9 @@
           <t>B</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">b : base (cf. kb, Mb, etc.)
 BAC (bacterial artificial chromosome) : chromosome artificiel bactérien
@@ -660,7 +676,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_de_sigles_de_biologie_cellulaire_et_mol%C3%A9culaire</t>
+          <t>Liste_de_sigles_de_biologie_cellulaire_et_moléculaire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -678,7 +694,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">CAM (cell adhesion molecule) : protéine d'adhésion cellulaire
 CAK (CDK-activating kinase) : kinase activatrice des CDK
@@ -735,7 +753,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_de_sigles_de_biologie_cellulaire_et_mol%C3%A9culaire</t>
+          <t>Liste_de_sigles_de_biologie_cellulaire_et_moléculaire</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -753,7 +771,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">DAMP (Damage Associated Molecular Pattern) : Motif moléculaire associé aux dégâts
 DAPI (4',6'-diamidino-2-phénylindole) : DAPI, molécule fluorescente capable de se lier fortement à l'ADN
@@ -802,7 +822,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_de_sigles_de_biologie_cellulaire_et_mol%C3%A9culaire</t>
+          <t>Liste_de_sigles_de_biologie_cellulaire_et_moléculaire</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -820,7 +840,9 @@
           <t>E</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">EDTA (ethylenediaminetetraacetic acid) : acide éthylène diamine tétracétique
 EGTA (ethyleneglycoltetraacetic acid) : acide éthylène glycol tétracétique
@@ -865,7 +887,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_de_sigles_de_biologie_cellulaire_et_mol%C3%A9culaire</t>
+          <t>Liste_de_sigles_de_biologie_cellulaire_et_moléculaire</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -883,7 +905,9 @@
           <t>F</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">FACS (fluorescence activated cell sorter) : voir cytométrie en flux
 FAST : fluorescence-activating and absorption-shifting tag
@@ -930,7 +954,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_de_sigles_de_biologie_cellulaire_et_mol%C3%A9culaire</t>
+          <t>Liste_de_sigles_de_biologie_cellulaire_et_moléculaire</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -948,7 +972,9 @@
           <t>G</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">GABA (gamma-aminobutyric acid) : acide γ-aminobutyrique
 GFP (green fluorescent protein) : protéine fluorescente verte
@@ -993,7 +1019,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Liste_de_sigles_de_biologie_cellulaire_et_mol%C3%A9culaire</t>
+          <t>Liste_de_sigles_de_biologie_cellulaire_et_moléculaire</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1011,7 +1037,9 @@
           <t>H</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">HAC (human artificial chromosome) : chromosome artificiel humain
 HAT : histone acétyltransférase, voir histone
@@ -1058,7 +1086,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Liste_de_sigles_de_biologie_cellulaire_et_mol%C3%A9culaire</t>
+          <t>Liste_de_sigles_de_biologie_cellulaire_et_moléculaire</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1076,7 +1104,9 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Ig : immunoglobuline
 IHC : immunohistochimie
@@ -1094,7 +1124,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Liste_de_sigles_de_biologie_cellulaire_et_mol%C3%A9culaire</t>
+          <t>Liste_de_sigles_de_biologie_cellulaire_et_moléculaire</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1112,7 +1142,9 @@
           <t>K</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">kb : kilobase
 Sommaire :
@@ -1152,7 +1184,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Liste_de_sigles_de_biologie_cellulaire_et_mol%C3%A9culaire</t>
+          <t>Liste_de_sigles_de_biologie_cellulaire_et_moléculaire</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1170,7 +1202,9 @@
           <t>L</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">LDL (low density lipoprotein) : lipoprotéine de basse densité
 LINE (long interspersed nuclear element) : long élément nucléaire intercalé
@@ -1215,7 +1249,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Liste_de_sigles_de_biologie_cellulaire_et_mol%C3%A9culaire</t>
+          <t>Liste_de_sigles_de_biologie_cellulaire_et_moléculaire</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1233,7 +1267,9 @@
           <t>M</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">MAG (myelin-associated glycoprotein) : glycoprotéine d'adhésion à la myéline
 MALDI (matrix-assisted laser desorption/ionization) : désorption-ionisation laser assistée par matrice
@@ -1284,7 +1320,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Liste_de_sigles_de_biologie_cellulaire_et_mol%C3%A9culaire</t>
+          <t>Liste_de_sigles_de_biologie_cellulaire_et_moléculaire</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1302,7 +1338,9 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve">NAD : nicotinamide adénine dinucléotide
 NADP : nicotinamide adénine dinucléotide phosphate
@@ -1350,7 +1388,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Liste_de_sigles_de_biologie_cellulaire_et_mol%C3%A9culaire</t>
+          <t>Liste_de_sigles_de_biologie_cellulaire_et_moléculaire</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1368,7 +1406,9 @@
           <t>O</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t xml:space="preserve">ORF (open reading frame) : cadre de lecture ouvert
 Sommaire :
@@ -1408,7 +1448,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Liste_de_sigles_de_biologie_cellulaire_et_mol%C3%A9culaire</t>
+          <t>Liste_de_sigles_de_biologie_cellulaire_et_moléculaire</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1426,7 +1466,9 @@
           <t>P</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t xml:space="preserve">PAGE (poly-acrylamide gel electrophoresis) : électrophorèse sur gel de polyacrylamide
 PAMP (Pathogen-associated molecular pattern) : motifs moléculaires associés aux pathogènes
@@ -1479,7 +1521,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Liste_de_sigles_de_biologie_cellulaire_et_mol%C3%A9culaire</t>
+          <t>Liste_de_sigles_de_biologie_cellulaire_et_moléculaire</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1497,7 +1539,9 @@
           <t>Q</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t xml:space="preserve">QPCR : PCR quantitative ou PCR en temps réel
 QPNC-PAGE (quantitative preparative native continuous poly-acrylamide gel electrophoresis)
@@ -1539,7 +1583,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Liste_de_sigles_de_biologie_cellulaire_et_mol%C3%A9culaire</t>
+          <t>Liste_de_sigles_de_biologie_cellulaire_et_moléculaire</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1557,7 +1601,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t xml:space="preserve">RAPD (random amplification of polymorphic DNA) : amplification aléatoire d'ADN polymorphe
 RBS (ribosome binding site) : séquence Shine-Dalgarno (site de fixation du ribosome)
@@ -1608,7 +1654,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Liste_de_sigles_de_biologie_cellulaire_et_mol%C3%A9culaire</t>
+          <t>Liste_de_sigles_de_biologie_cellulaire_et_moléculaire</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1626,7 +1672,9 @@
           <t>S</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t xml:space="preserve">sb : simple brin
 SDS (sodium dodecyl sulfate) : laurylsulfate de sodium ou dodécylsulfate de sodium
@@ -1678,7 +1726,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Liste_de_sigles_de_biologie_cellulaire_et_mol%C3%A9culaire</t>
+          <t>Liste_de_sigles_de_biologie_cellulaire_et_moléculaire</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1696,7 +1744,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t xml:space="preserve">Tampon TAE
 Tampon TBE
@@ -1746,7 +1796,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Liste_de_sigles_de_biologie_cellulaire_et_mol%C3%A9culaire</t>
+          <t>Liste_de_sigles_de_biologie_cellulaire_et_moléculaire</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1764,7 +1814,9 @@
           <t>U</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t xml:space="preserve">UMP : uridine monophosphate
 UTR (untranslated regions ) : Région non traduite
@@ -1805,7 +1857,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Liste_de_sigles_de_biologie_cellulaire_et_mol%C3%A9culaire</t>
+          <t>Liste_de_sigles_de_biologie_cellulaire_et_moléculaire</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1823,7 +1875,9 @@
           <t>V</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t xml:space="preserve">VIH : virus de l'immunodéficience humaine
 VIP (vasoactive intestinal peptide) : peptide vasoactif intestinal
@@ -1865,7 +1919,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Liste_de_sigles_de_biologie_cellulaire_et_mol%C3%A9culaire</t>
+          <t>Liste_de_sigles_de_biologie_cellulaire_et_moléculaire</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1883,7 +1937,9 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t xml:space="preserve">YAC (yeast artificial chromosome) : chromosome artificiel de levure
 Sommaire :
